--- a/src/test/java/ru/fds/tavrzcms3/testdata/insurance_new.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/insurance_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>pledge_subject_id: 0</t>
   </si>
@@ -380,7 +380,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,6 +451,9 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="1">
+        <v>38477</v>
+      </c>
       <c r="D3" s="1">
         <v>39239</v>
       </c>
@@ -462,6 +465,9 @@
       </c>
       <c r="G3" t="s">
         <v>11</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -476,6 +482,18 @@
       </c>
       <c r="D4" s="1">
         <v>39636</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>39668</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
